--- a/dataAnalysis/DataAnalysis1480/fromZero/data/matplotlib_wechart.xlsx
+++ b/dataAnalysis/DataAnalysis1480/fromZero/data/matplotlib_wechart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView windowWidth="19935" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="阅读数据" sheetId="1" r:id="rId1"/>
@@ -13,45 +13,40 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阅读数据!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>article_reading_cnts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>article_reading_times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>collect_times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -59,26 +54,361 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -110,6 +440,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -120,49 +461,328 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -173,9 +793,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -474,25 +1092,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="3">
         <v>42736</v>
       </c>
@@ -520,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="3">
         <v>42737</v>
       </c>
@@ -534,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="3">
         <v>42738</v>
       </c>
@@ -548,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="3">
         <v>42739</v>
       </c>
@@ -562,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="3">
         <v>42740</v>
       </c>
@@ -576,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="3">
         <v>42741</v>
       </c>
@@ -590,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="3">
         <v>42742</v>
       </c>
@@ -604,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="3">
         <v>42743</v>
       </c>
@@ -618,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="3">
         <v>42744</v>
       </c>
@@ -632,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="3">
         <v>42745</v>
       </c>
@@ -646,7 +1266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="3">
         <v>42746</v>
       </c>
@@ -660,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="3">
         <v>42747</v>
       </c>
@@ -674,7 +1294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="3">
         <v>42748</v>
       </c>
@@ -688,7 +1308,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="3">
         <v>42749</v>
       </c>
@@ -702,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="3">
         <v>42750</v>
       </c>
@@ -716,7 +1336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="16.5" spans="1:4">
       <c r="A17" s="3">
         <v>42751</v>
       </c>
@@ -730,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="3">
         <v>42752</v>
       </c>
@@ -744,7 +1364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" ht="16.5" spans="1:4">
       <c r="A19" s="3">
         <v>42753</v>
       </c>
@@ -758,7 +1378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" ht="16.5" spans="1:4">
       <c r="A20" s="3">
         <v>42754</v>
       </c>
@@ -772,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" ht="16.5" spans="1:4">
       <c r="A21" s="3">
         <v>42755</v>
       </c>
@@ -786,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" ht="16.5" spans="1:4">
       <c r="A22" s="3">
         <v>42756</v>
       </c>
@@ -800,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" ht="16.5" spans="1:4">
       <c r="A23" s="3">
         <v>42757</v>
       </c>
@@ -814,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" ht="16.5" spans="1:4">
       <c r="A24" s="3">
         <v>42758</v>
       </c>
@@ -828,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" ht="16.5" spans="1:4">
       <c r="A25" s="3">
         <v>42759</v>
       </c>
@@ -842,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" ht="16.5" spans="1:4">
       <c r="A26" s="3">
         <v>42760</v>
       </c>
@@ -856,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" ht="16.5" spans="1:4">
       <c r="A27" s="3">
         <v>42761</v>
       </c>
@@ -870,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" ht="16.5" spans="1:4">
       <c r="A28" s="3">
         <v>42762</v>
       </c>
@@ -884,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" ht="16.5" spans="1:4">
       <c r="A29" s="3">
         <v>42763</v>
       </c>
@@ -898,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" ht="16.5" spans="1:4">
       <c r="A30" s="3">
         <v>42764</v>
       </c>
@@ -912,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" ht="16.5" spans="1:4">
       <c r="A31" s="3">
         <v>42765</v>
       </c>
@@ -926,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" ht="16.5" spans="1:4">
       <c r="A32" s="3">
         <v>42766</v>
       </c>
@@ -940,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" ht="16.5" spans="1:4">
       <c r="A33" s="3">
         <v>42767</v>
       </c>
@@ -954,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" ht="16.5" spans="1:4">
       <c r="A34" s="3">
         <v>42768</v>
       </c>
@@ -968,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" ht="16.5" spans="1:4">
       <c r="A35" s="3">
         <v>42769</v>
       </c>
@@ -982,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" ht="16.5" spans="1:4">
       <c r="A36" s="3">
         <v>42770</v>
       </c>
@@ -996,7 +1616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" ht="16.5" spans="1:4">
       <c r="A37" s="3">
         <v>42771</v>
       </c>
@@ -1010,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" ht="16.5" spans="1:4">
       <c r="A38" s="3">
         <v>42772</v>
       </c>
@@ -1024,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" ht="16.5" spans="1:4">
       <c r="A39" s="3">
         <v>42773</v>
       </c>
@@ -1038,7 +1658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" ht="16.5" spans="1:4">
       <c r="A40" s="3">
         <v>42774</v>
       </c>
@@ -1052,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" ht="16.5" spans="1:4">
       <c r="A41" s="3">
         <v>42775</v>
       </c>
@@ -1066,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" ht="16.5" spans="1:4">
       <c r="A42" s="3">
         <v>42776</v>
       </c>
@@ -1080,7 +1700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" ht="16.5" spans="1:4">
       <c r="A43" s="3">
         <v>42777</v>
       </c>
@@ -1094,7 +1714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" ht="16.5" spans="1:4">
       <c r="A44" s="3">
         <v>42778</v>
       </c>
@@ -1108,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" ht="16.5" spans="1:4">
       <c r="A45" s="3">
         <v>42779</v>
       </c>
@@ -1122,7 +1742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" ht="16.5" spans="1:4">
       <c r="A46" s="3">
         <v>42780</v>
       </c>
@@ -1136,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" ht="16.5" spans="1:4">
       <c r="A47" s="3">
         <v>42781</v>
       </c>
@@ -1150,7 +1770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" ht="16.5" spans="1:4">
       <c r="A48" s="3">
         <v>42782</v>
       </c>
@@ -1164,7 +1784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" ht="16.5" spans="1:4">
       <c r="A49" s="3">
         <v>42783</v>
       </c>
@@ -1178,7 +1798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" ht="16.5" spans="1:4">
       <c r="A50" s="3">
         <v>42784</v>
       </c>
@@ -1192,7 +1812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" ht="16.5" spans="1:4">
       <c r="A51" s="3">
         <v>42785</v>
       </c>
@@ -1206,7 +1826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" ht="16.5" spans="1:4">
       <c r="A52" s="3">
         <v>42786</v>
       </c>
@@ -1220,7 +1840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" ht="16.5" spans="1:4">
       <c r="A53" s="3">
         <v>42787</v>
       </c>
@@ -1234,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" ht="16.5" spans="1:4">
       <c r="A54" s="3">
         <v>42788</v>
       </c>
@@ -1248,7 +1868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" ht="16.5" spans="1:4">
       <c r="A55" s="3">
         <v>42789</v>
       </c>
@@ -1262,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" ht="16.5" spans="1:4">
       <c r="A56" s="3">
         <v>42790</v>
       </c>
@@ -1276,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" ht="16.5" spans="1:4">
       <c r="A57" s="3">
         <v>42791</v>
       </c>
@@ -1290,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" ht="16.5" spans="1:4">
       <c r="A58" s="3">
         <v>42792</v>
       </c>
@@ -1304,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" ht="16.5" spans="1:4">
       <c r="A59" s="3">
         <v>42793</v>
       </c>
@@ -1318,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" ht="16.5" spans="1:4">
       <c r="A60" s="3">
         <v>42794</v>
       </c>
@@ -1332,7 +1952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" ht="16.5" spans="1:4">
       <c r="A61" s="3">
         <v>42795</v>
       </c>
@@ -1346,7 +1966,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" ht="16.5" spans="1:4">
       <c r="A62" s="3">
         <v>42796</v>
       </c>
@@ -1360,7 +1980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" ht="16.5" spans="1:4">
       <c r="A63" s="3">
         <v>42797</v>
       </c>
@@ -1374,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" ht="16.5" spans="1:4">
       <c r="A64" s="3">
         <v>42798</v>
       </c>
@@ -1388,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" ht="16.5" spans="1:4">
       <c r="A65" s="3">
         <v>42799</v>
       </c>
@@ -1402,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" ht="16.5" spans="1:4">
       <c r="A66" s="3">
         <v>42800</v>
       </c>
@@ -1416,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" ht="16.5" spans="1:4">
       <c r="A67" s="3">
         <v>42801</v>
       </c>
@@ -1430,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" ht="16.5" spans="1:4">
       <c r="A68" s="3">
         <v>42802</v>
       </c>
@@ -1444,7 +2064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" ht="16.5" spans="1:4">
       <c r="A69" s="3">
         <v>42803</v>
       </c>
@@ -1458,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" ht="16.5" spans="1:4">
       <c r="A70" s="3">
         <v>42804</v>
       </c>
@@ -1472,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" ht="16.5" spans="1:4">
       <c r="A71" s="3">
         <v>42805</v>
       </c>
@@ -1486,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" ht="16.5" spans="1:4">
       <c r="A72" s="3">
         <v>42806</v>
       </c>
@@ -1500,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" ht="16.5" spans="1:4">
       <c r="A73" s="3">
         <v>42807</v>
       </c>
@@ -1514,7 +2134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" ht="16.5" spans="1:4">
       <c r="A74" s="3">
         <v>42808</v>
       </c>
@@ -1528,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" ht="16.5" spans="1:4">
       <c r="A75" s="3">
         <v>42809</v>
       </c>
@@ -1542,7 +2162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" ht="16.5" spans="1:4">
       <c r="A76" s="3">
         <v>42810</v>
       </c>
@@ -1556,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" ht="16.5" spans="1:4">
       <c r="A77" s="3">
         <v>42811</v>
       </c>
@@ -1570,7 +2190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" ht="16.5" spans="1:4">
       <c r="A78" s="3">
         <v>42812</v>
       </c>
@@ -1584,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" ht="16.5" spans="1:4">
       <c r="A79" s="3">
         <v>42813</v>
       </c>
@@ -1598,7 +2218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" ht="16.5" spans="1:4">
       <c r="A80" s="3">
         <v>42814</v>
       </c>
@@ -1612,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" ht="16.5" spans="1:4">
       <c r="A81" s="3">
         <v>42815</v>
       </c>
@@ -1626,7 +2246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" ht="16.5" spans="1:4">
       <c r="A82" s="3">
         <v>42816</v>
       </c>
@@ -1640,7 +2260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" ht="16.5" spans="1:4">
       <c r="A83" s="3">
         <v>42817</v>
       </c>
@@ -1654,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" ht="16.5" spans="1:4">
       <c r="A84" s="3">
         <v>42818</v>
       </c>
@@ -1668,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" ht="16.5" spans="1:4">
       <c r="A85" s="3">
         <v>42819</v>
       </c>
@@ -1682,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" ht="16.5" spans="1:4">
       <c r="A86" s="3">
         <v>42820</v>
       </c>
@@ -1696,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" ht="16.5" spans="1:4">
       <c r="A87" s="3">
         <v>42821</v>
       </c>
@@ -1710,7 +2330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" ht="16.5" spans="1:4">
       <c r="A88" s="3">
         <v>42822</v>
       </c>
@@ -1724,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" ht="16.5" spans="1:4">
       <c r="A89" s="3">
         <v>42823</v>
       </c>
@@ -1738,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" ht="16.5" spans="1:4">
       <c r="A90" s="3">
         <v>42824</v>
       </c>
@@ -1752,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" ht="16.5" spans="1:4">
       <c r="A91" s="3">
         <v>42825</v>
       </c>
@@ -1766,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" ht="16.5" spans="1:4">
       <c r="A92" s="3">
         <v>42826</v>
       </c>
@@ -1780,7 +2400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" ht="16.5" spans="1:4">
       <c r="A93" s="3">
         <v>42827</v>
       </c>
@@ -1794,7 +2414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" ht="16.5" spans="1:4">
       <c r="A94" s="3">
         <v>42828</v>
       </c>
@@ -1808,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" ht="16.5" spans="1:4">
       <c r="A95" s="3">
         <v>42829</v>
       </c>
@@ -1822,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" ht="16.5" spans="1:4">
       <c r="A96" s="3">
         <v>42830</v>
       </c>
@@ -1836,7 +2456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" ht="16.5" spans="1:4">
       <c r="A97" s="3">
         <v>42831</v>
       </c>
@@ -1850,7 +2470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" ht="16.5" spans="1:4">
       <c r="A98" s="3">
         <v>42832</v>
       </c>
@@ -1864,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" ht="16.5" spans="1:4">
       <c r="A99" s="3">
         <v>42833</v>
       </c>
@@ -1878,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" ht="16.5" spans="1:4">
       <c r="A100" s="3">
         <v>42834</v>
       </c>
@@ -1892,7 +2512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" ht="16.5" spans="1:4">
       <c r="A101" s="3">
         <v>42835</v>
       </c>
@@ -1906,7 +2526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" ht="16.5" spans="1:4">
       <c r="A102" s="3">
         <v>42836</v>
       </c>
@@ -1920,7 +2540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" ht="16.5" spans="1:4">
       <c r="A103" s="3">
         <v>42837</v>
       </c>
@@ -1934,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" ht="16.5" spans="1:4">
       <c r="A104" s="3">
         <v>42838</v>
       </c>
@@ -1948,7 +2568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" ht="16.5" spans="1:4">
       <c r="A105" s="3">
         <v>42839</v>
       </c>
@@ -1962,7 +2582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" ht="16.5" spans="1:4">
       <c r="A106" s="3">
         <v>42840</v>
       </c>
@@ -1976,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" ht="16.5" spans="1:4">
       <c r="A107" s="3">
         <v>42841</v>
       </c>
@@ -1990,7 +2610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" ht="16.5" spans="1:4">
       <c r="A108" s="3">
         <v>42842</v>
       </c>
@@ -2004,7 +2624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" ht="16.5" spans="1:4">
       <c r="A109" s="3">
         <v>42843</v>
       </c>
@@ -2018,7 +2638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" ht="16.5" spans="1:4">
       <c r="A110" s="3">
         <v>42844</v>
       </c>
@@ -2032,7 +2652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" ht="16.5" spans="1:4">
       <c r="A111" s="3">
         <v>42845</v>
       </c>
@@ -2046,7 +2666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" ht="16.5" spans="1:4">
       <c r="A112" s="3">
         <v>42846</v>
       </c>
@@ -2060,7 +2680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" ht="16.5" spans="1:4">
       <c r="A113" s="3">
         <v>42847</v>
       </c>
@@ -2074,7 +2694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" ht="16.5" spans="1:4">
       <c r="A114" s="3">
         <v>42848</v>
       </c>
@@ -2088,7 +2708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" ht="16.5" spans="1:4">
       <c r="A115" s="3">
         <v>42849</v>
       </c>
@@ -2102,7 +2722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" ht="16.5" spans="1:4">
       <c r="A116" s="3">
         <v>42850</v>
       </c>
@@ -2116,7 +2736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" ht="16.5" spans="1:4">
       <c r="A117" s="3">
         <v>42851</v>
       </c>
@@ -2130,7 +2750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" ht="16.5" spans="1:4">
       <c r="A118" s="3">
         <v>42852</v>
       </c>
@@ -2144,7 +2764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" ht="16.5" spans="1:4">
       <c r="A119" s="3">
         <v>42853</v>
       </c>
@@ -2158,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" ht="16.5" spans="1:4">
       <c r="A120" s="3">
         <v>42854</v>
       </c>
@@ -2172,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" ht="16.5" spans="1:4">
       <c r="A121" s="3">
         <v>42855</v>
       </c>
@@ -2186,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" ht="16.5" spans="1:4">
       <c r="A122" s="3">
         <v>42856</v>
       </c>
@@ -2200,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" ht="16.5" spans="1:4">
       <c r="A123" s="3">
         <v>42857</v>
       </c>
@@ -2214,7 +2834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" ht="16.5" spans="1:4">
       <c r="A124" s="3">
         <v>42858</v>
       </c>
@@ -2228,7 +2848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" ht="16.5" spans="1:4">
       <c r="A125" s="3">
         <v>42859</v>
       </c>
@@ -2242,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" ht="16.5" spans="1:4">
       <c r="A126" s="3">
         <v>42860</v>
       </c>
@@ -2256,7 +2876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" ht="16.5" spans="1:4">
       <c r="A127" s="3">
         <v>42861</v>
       </c>
@@ -2270,7 +2890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" ht="16.5" spans="1:4">
       <c r="A128" s="3">
         <v>42862</v>
       </c>
@@ -2284,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" ht="16.5" spans="1:4">
       <c r="A129" s="3">
         <v>42863</v>
       </c>
@@ -2298,7 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" ht="16.5" spans="1:4">
       <c r="A130" s="3">
         <v>42864</v>
       </c>
@@ -2312,7 +2932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" ht="16.5" spans="1:4">
       <c r="A131" s="3">
         <v>42865</v>
       </c>
@@ -2326,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" ht="16.5" spans="1:4">
       <c r="A132" s="3">
         <v>42866</v>
       </c>
@@ -2340,7 +2960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" ht="16.5" spans="1:4">
       <c r="A133" s="3">
         <v>42867</v>
       </c>
@@ -2354,7 +2974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" ht="16.5" spans="1:4">
       <c r="A134" s="3">
         <v>42868</v>
       </c>
@@ -2368,7 +2988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" ht="16.5" spans="1:4">
       <c r="A135" s="3">
         <v>42869</v>
       </c>
@@ -2382,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" ht="16.5" spans="1:4">
       <c r="A136" s="3">
         <v>42870</v>
       </c>
@@ -2396,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" ht="16.5" spans="1:4">
       <c r="A137" s="3">
         <v>42871</v>
       </c>
@@ -2410,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" ht="16.5" spans="1:4">
       <c r="A138" s="3">
         <v>42872</v>
       </c>
@@ -2424,7 +3044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" ht="16.5" spans="1:4">
       <c r="A139" s="3">
         <v>42873</v>
       </c>
@@ -2438,7 +3058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" ht="16.5" spans="1:4">
       <c r="A140" s="3">
         <v>42874</v>
       </c>
@@ -2452,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" ht="16.5" spans="1:4">
       <c r="A141" s="3">
         <v>42875</v>
       </c>
@@ -2466,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" ht="16.5" spans="1:4">
       <c r="A142" s="3">
         <v>42876</v>
       </c>
@@ -2480,7 +3100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" ht="16.5" spans="1:4">
       <c r="A143" s="3">
         <v>42877</v>
       </c>
@@ -2494,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" ht="16.5" spans="1:4">
       <c r="A144" s="3">
         <v>42878</v>
       </c>
@@ -2508,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" ht="16.5" spans="1:4">
       <c r="A145" s="3">
         <v>42879</v>
       </c>
@@ -2522,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" ht="16.5" spans="1:4">
       <c r="A146" s="3">
         <v>42880</v>
       </c>
@@ -2536,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" ht="16.5" spans="1:4">
       <c r="A147" s="3">
         <v>42881</v>
       </c>
@@ -2550,7 +3170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="148" ht="16.5" spans="1:4">
       <c r="A148" s="3">
         <v>42882</v>
       </c>
@@ -2564,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="149" ht="16.5" spans="1:4">
       <c r="A149" s="3">
         <v>42883</v>
       </c>
@@ -2578,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="150" ht="16.5" spans="1:4">
       <c r="A150" s="3">
         <v>42884</v>
       </c>
@@ -2592,7 +3212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="151" ht="16.5" spans="1:4">
       <c r="A151" s="3">
         <v>42885</v>
       </c>
@@ -2606,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="152" ht="16.5" spans="1:4">
       <c r="A152" s="3">
         <v>42886</v>
       </c>
@@ -2620,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="153" ht="16.5" spans="1:4">
       <c r="A153" s="3">
         <v>42887</v>
       </c>
@@ -2634,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="154" ht="16.5" spans="1:4">
       <c r="A154" s="3">
         <v>42888</v>
       </c>
@@ -2648,7 +3268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="155" ht="16.5" spans="1:4">
       <c r="A155" s="3">
         <v>42889</v>
       </c>
@@ -2662,7 +3282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="156" ht="16.5" spans="1:4">
       <c r="A156" s="3">
         <v>42890</v>
       </c>
@@ -2676,7 +3296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="157" ht="16.5" spans="1:4">
       <c r="A157" s="3">
         <v>42891</v>
       </c>
@@ -2690,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="158" ht="16.5" spans="1:4">
       <c r="A158" s="3">
         <v>42892</v>
       </c>
@@ -2704,7 +3324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="159" ht="16.5" spans="1:4">
       <c r="A159" s="3">
         <v>42893</v>
       </c>
@@ -2718,7 +3338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="160" ht="16.5" spans="1:4">
       <c r="A160" s="3">
         <v>42894</v>
       </c>
@@ -2732,7 +3352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" ht="16.5" spans="1:4">
       <c r="A161" s="3">
         <v>42895</v>
       </c>
@@ -2746,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="162" ht="16.5" spans="1:4">
       <c r="A162" s="3">
         <v>42896</v>
       </c>
@@ -2760,7 +3380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="163" ht="16.5" spans="1:4">
       <c r="A163" s="3">
         <v>42897</v>
       </c>
@@ -2774,7 +3394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="164" ht="16.5" spans="1:4">
       <c r="A164" s="3">
         <v>42898</v>
       </c>
@@ -2788,7 +3408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="165" ht="16.5" spans="1:4">
       <c r="A165" s="3">
         <v>42899</v>
       </c>
@@ -2802,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="166" ht="16.5" spans="1:4">
       <c r="A166" s="3">
         <v>42900</v>
       </c>
@@ -2816,7 +3436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="167" ht="16.5" spans="1:4">
       <c r="A167" s="3">
         <v>42901</v>
       </c>
@@ -2830,7 +3450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="168" ht="16.5" spans="1:4">
       <c r="A168" s="3">
         <v>42902</v>
       </c>
@@ -2844,7 +3464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="169" ht="16.5" spans="1:4">
       <c r="A169" s="3">
         <v>42903</v>
       </c>
@@ -2858,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="170" ht="16.5" spans="1:4">
       <c r="A170" s="3">
         <v>42904</v>
       </c>
@@ -2872,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="171" ht="16.5" spans="1:4">
       <c r="A171" s="3">
         <v>42905</v>
       </c>
@@ -2886,7 +3506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="172" ht="16.5" spans="1:4">
       <c r="A172" s="3">
         <v>42906</v>
       </c>
@@ -2900,7 +3520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="173" ht="16.5" spans="1:4">
       <c r="A173" s="3">
         <v>42907</v>
       </c>
@@ -2914,7 +3534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" ht="16.5" spans="1:4">
       <c r="A174" s="3">
         <v>42908</v>
       </c>
@@ -2928,7 +3548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="175" ht="16.5" spans="1:4">
       <c r="A175" s="3">
         <v>42909</v>
       </c>
@@ -2942,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="176" ht="16.5" spans="1:4">
       <c r="A176" s="3">
         <v>42910</v>
       </c>
@@ -2956,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="177" ht="16.5" spans="1:4">
       <c r="A177" s="3">
         <v>42911</v>
       </c>
@@ -2970,7 +3590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="178" ht="16.5" spans="1:4">
       <c r="A178" s="3">
         <v>42912</v>
       </c>
@@ -2984,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="179" ht="16.5" spans="1:4">
       <c r="A179" s="3">
         <v>42913</v>
       </c>
@@ -2998,7 +3618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="180" ht="16.5" spans="1:4">
       <c r="A180" s="3">
         <v>42914</v>
       </c>
@@ -3012,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="181" ht="16.5" spans="1:4">
       <c r="A181" s="3">
         <v>42915</v>
       </c>
@@ -3026,7 +3646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="182" ht="16.5" spans="1:4">
       <c r="A182" s="3">
         <v>42916</v>
       </c>
@@ -3040,7 +3660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="183" ht="16.5" spans="1:4">
       <c r="A183" s="3">
         <v>42917</v>
       </c>
@@ -3054,7 +3674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="184" ht="16.5" spans="1:4">
       <c r="A184" s="3">
         <v>42918</v>
       </c>
@@ -3068,7 +3688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="185" ht="16.5" spans="1:4">
       <c r="A185" s="3">
         <v>42919</v>
       </c>
@@ -3082,7 +3702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="186" ht="16.5" spans="1:4">
       <c r="A186" s="3">
         <v>42920</v>
       </c>
@@ -3096,7 +3716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="187" ht="16.5" spans="1:4">
       <c r="A187" s="3">
         <v>42921</v>
       </c>
@@ -3110,7 +3730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="188" ht="16.5" spans="1:4">
       <c r="A188" s="3">
         <v>42922</v>
       </c>
@@ -3124,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="189" ht="16.5" spans="1:4">
       <c r="A189" s="3">
         <v>42923</v>
       </c>
@@ -3138,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="190" ht="16.5" spans="1:4">
       <c r="A190" s="3">
         <v>42924</v>
       </c>
@@ -3152,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="191" ht="16.5" spans="1:4">
       <c r="A191" s="3">
         <v>42925</v>
       </c>
@@ -3166,7 +3786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="192" ht="16.5" spans="1:4">
       <c r="A192" s="3">
         <v>42926</v>
       </c>
@@ -3180,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="193" ht="16.5" spans="1:4">
       <c r="A193" s="3">
         <v>42927</v>
       </c>
@@ -3194,7 +3814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="194" ht="16.5" spans="1:4">
       <c r="A194" s="3">
         <v>42928</v>
       </c>
@@ -3208,7 +3828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="195" ht="16.5" spans="1:4">
       <c r="A195" s="3">
         <v>42929</v>
       </c>
@@ -3222,7 +3842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="196" ht="16.5" spans="1:4">
       <c r="A196" s="3">
         <v>42930</v>
       </c>
@@ -3236,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="197" ht="16.5" spans="1:4">
       <c r="A197" s="3">
         <v>42931</v>
       </c>
@@ -3250,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="198" ht="16.5" spans="1:4">
       <c r="A198" s="3">
         <v>42932</v>
       </c>
@@ -3264,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="199" ht="16.5" spans="1:4">
       <c r="A199" s="3">
         <v>42933</v>
       </c>
@@ -3278,7 +3898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="200" ht="16.5" spans="1:4">
       <c r="A200" s="3">
         <v>42934</v>
       </c>
@@ -3292,7 +3912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="201" ht="16.5" spans="1:4">
       <c r="A201" s="3">
         <v>42935</v>
       </c>
@@ -3306,7 +3926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="202" ht="16.5" spans="1:4">
       <c r="A202" s="3">
         <v>42936</v>
       </c>
@@ -3320,7 +3940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="203" ht="16.5" spans="1:4">
       <c r="A203" s="3">
         <v>42937</v>
       </c>
@@ -3334,7 +3954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="204" ht="16.5" spans="1:4">
       <c r="A204" s="3">
         <v>42938</v>
       </c>
@@ -3348,7 +3968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="205" ht="16.5" spans="1:4">
       <c r="A205" s="3">
         <v>42939</v>
       </c>
@@ -3362,7 +3982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="206" ht="16.5" spans="1:4">
       <c r="A206" s="3">
         <v>42940</v>
       </c>
@@ -3376,7 +3996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="207" ht="16.5" spans="1:4">
       <c r="A207" s="3">
         <v>42941</v>
       </c>
@@ -3390,7 +4010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="208" ht="16.5" spans="1:4">
       <c r="A208" s="3">
         <v>42942</v>
       </c>
@@ -3404,7 +4024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="209" ht="16.5" spans="1:4">
       <c r="A209" s="3">
         <v>42943</v>
       </c>
@@ -3418,7 +4038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="210" ht="16.5" spans="1:4">
       <c r="A210" s="3">
         <v>42944</v>
       </c>
@@ -3432,7 +4052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="211" ht="16.5" spans="1:4">
       <c r="A211" s="3">
         <v>42945</v>
       </c>
@@ -3446,7 +4066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="212" ht="16.5" spans="1:4">
       <c r="A212" s="3">
         <v>42946</v>
       </c>
@@ -3460,7 +4080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="213" ht="16.5" spans="1:4">
       <c r="A213" s="3">
         <v>42947</v>
       </c>
@@ -3474,7 +4094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="214" ht="16.5" spans="1:4">
       <c r="A214" s="3">
         <v>42948</v>
       </c>
@@ -3488,7 +4108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="215" ht="16.5" spans="1:4">
       <c r="A215" s="3">
         <v>42949</v>
       </c>
@@ -3502,7 +4122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="216" ht="16.5" spans="1:4">
       <c r="A216" s="3">
         <v>42950</v>
       </c>
@@ -3516,7 +4136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="217" ht="16.5" spans="1:4">
       <c r="A217" s="3">
         <v>42951</v>
       </c>
@@ -3530,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="218" ht="16.5" spans="1:4">
       <c r="A218" s="3">
         <v>42952</v>
       </c>
@@ -3544,7 +4164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="219" ht="16.5" spans="1:4">
       <c r="A219" s="3">
         <v>42953</v>
       </c>
@@ -3558,7 +4178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="220" ht="16.5" spans="1:4">
       <c r="A220" s="3">
         <v>42954</v>
       </c>
@@ -3572,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="221" ht="16.5" spans="1:4">
       <c r="A221" s="3">
         <v>42955</v>
       </c>
@@ -3586,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="222" ht="16.5" spans="1:4">
       <c r="A222" s="3">
         <v>42956</v>
       </c>
@@ -3600,7 +4220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="223" ht="16.5" spans="1:4">
       <c r="A223" s="3">
         <v>42957</v>
       </c>
@@ -3614,7 +4234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="224" ht="16.5" spans="1:4">
       <c r="A224" s="3">
         <v>42958</v>
       </c>
@@ -3628,7 +4248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="225" ht="16.5" spans="1:4">
       <c r="A225" s="3">
         <v>42959</v>
       </c>
@@ -3642,7 +4262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="226" ht="16.5" spans="1:4">
       <c r="A226" s="3">
         <v>42960</v>
       </c>
@@ -3656,7 +4276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="227" ht="16.5" spans="1:4">
       <c r="A227" s="3">
         <v>42961</v>
       </c>
@@ -3670,7 +4290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="228" ht="16.5" spans="1:4">
       <c r="A228" s="3">
         <v>42962</v>
       </c>
@@ -3684,7 +4304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="229" ht="16.5" spans="1:4">
       <c r="A229" s="3">
         <v>42963</v>
       </c>
@@ -3698,7 +4318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="230" ht="16.5" spans="1:4">
       <c r="A230" s="3">
         <v>42964</v>
       </c>
@@ -3712,7 +4332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="231" ht="16.5" spans="1:4">
       <c r="A231" s="3">
         <v>42965</v>
       </c>
@@ -3726,7 +4346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="232" ht="16.5" spans="1:4">
       <c r="A232" s="3">
         <v>42966</v>
       </c>
@@ -3740,7 +4360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="233" ht="16.5" spans="1:4">
       <c r="A233" s="3">
         <v>42967</v>
       </c>
@@ -3754,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="234" ht="16.5" spans="1:4">
       <c r="A234" s="3">
         <v>42968</v>
       </c>
@@ -3768,7 +4388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="235" ht="16.5" spans="1:4">
       <c r="A235" s="3">
         <v>42969</v>
       </c>
@@ -3782,7 +4402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="236" ht="16.5" spans="1:4">
       <c r="A236" s="3">
         <v>42970</v>
       </c>
@@ -3796,7 +4416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="237" ht="16.5" spans="1:4">
       <c r="A237" s="3">
         <v>42971</v>
       </c>
@@ -3810,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="238" ht="16.5" spans="1:4">
       <c r="A238" s="3">
         <v>42972</v>
       </c>
@@ -3824,7 +4444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="239" ht="16.5" spans="1:4">
       <c r="A239" s="3">
         <v>42973</v>
       </c>
@@ -3838,7 +4458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="240" ht="16.5" spans="1:4">
       <c r="A240" s="3">
         <v>42974</v>
       </c>
@@ -3852,7 +4472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="241" ht="16.5" spans="1:4">
       <c r="A241" s="3">
         <v>42975</v>
       </c>
@@ -3866,7 +4486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="242" ht="16.5" spans="1:4">
       <c r="A242" s="3">
         <v>42976</v>
       </c>
@@ -3880,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="243" ht="16.5" spans="1:4">
       <c r="A243" s="3">
         <v>42977</v>
       </c>
@@ -3894,7 +4514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="244" ht="16.5" spans="1:4">
       <c r="A244" s="3">
         <v>42978</v>
       </c>
@@ -3908,7 +4528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="245" ht="16.5" spans="1:4">
       <c r="A245" s="3">
         <v>42979</v>
       </c>
@@ -3922,7 +4542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="246" ht="16.5" spans="1:4">
       <c r="A246" s="3">
         <v>42980</v>
       </c>
@@ -3936,7 +4556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="247" ht="16.5" spans="1:4">
       <c r="A247" s="3">
         <v>42981</v>
       </c>
@@ -3950,7 +4570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="248" ht="16.5" spans="1:4">
       <c r="A248" s="3">
         <v>42982</v>
       </c>
@@ -3964,7 +4584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="249" ht="16.5" spans="1:4">
       <c r="A249" s="3">
         <v>42983</v>
       </c>
@@ -3978,7 +4598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="250" ht="16.5" spans="1:4">
       <c r="A250" s="3">
         <v>42984</v>
       </c>
@@ -3992,7 +4612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="251" ht="16.5" spans="1:4">
       <c r="A251" s="3">
         <v>42985</v>
       </c>
@@ -4006,7 +4626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="252" ht="16.5" spans="1:4">
       <c r="A252" s="3">
         <v>42986</v>
       </c>
@@ -4020,7 +4640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="253" ht="16.5" spans="1:4">
       <c r="A253" s="3">
         <v>42987</v>
       </c>
@@ -4034,7 +4654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="254" ht="16.5" spans="1:4">
       <c r="A254" s="3">
         <v>42988</v>
       </c>
@@ -4048,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="255" ht="16.5" spans="1:4">
       <c r="A255" s="3">
         <v>42989</v>
       </c>
@@ -4062,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="256" ht="16.5" spans="1:4">
       <c r="A256" s="3">
         <v>42990</v>
       </c>
@@ -4076,7 +4696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="257" ht="16.5" spans="1:4">
       <c r="A257" s="3">
         <v>42991</v>
       </c>
@@ -4090,7 +4710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="258" ht="16.5" spans="1:4">
       <c r="A258" s="3">
         <v>42992</v>
       </c>
@@ -4104,7 +4724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="259" ht="16.5" spans="1:4">
       <c r="A259" s="3">
         <v>42993</v>
       </c>
@@ -4118,7 +4738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="260" ht="16.5" spans="1:4">
       <c r="A260" s="3">
         <v>42994</v>
       </c>
@@ -4132,7 +4752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="261" ht="16.5" spans="1:4">
       <c r="A261" s="3">
         <v>42995</v>
       </c>
@@ -4146,7 +4766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="262" ht="16.5" spans="1:4">
       <c r="A262" s="3">
         <v>42996</v>
       </c>
@@ -4160,7 +4780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="263" ht="16.5" spans="1:4">
       <c r="A263" s="3">
         <v>42997</v>
       </c>
@@ -4174,7 +4794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="264" ht="16.5" spans="1:4">
       <c r="A264" s="3">
         <v>42998</v>
       </c>
@@ -4188,7 +4808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="265" ht="16.5" spans="1:4">
       <c r="A265" s="3">
         <v>42999</v>
       </c>
@@ -4202,7 +4822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="266" ht="16.5" spans="1:4">
       <c r="A266" s="3">
         <v>43000</v>
       </c>
@@ -4216,7 +4836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="267" ht="16.5" spans="1:4">
       <c r="A267" s="3">
         <v>43001</v>
       </c>
@@ -4230,7 +4850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="268" ht="16.5" spans="1:4">
       <c r="A268" s="3">
         <v>43002</v>
       </c>
@@ -4244,7 +4864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="269" ht="16.5" spans="1:4">
       <c r="A269" s="3">
         <v>43003</v>
       </c>
@@ -4258,7 +4878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="270" ht="16.5" spans="1:4">
       <c r="A270" s="3">
         <v>43004</v>
       </c>
@@ -4272,7 +4892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="271" ht="16.5" spans="1:4">
       <c r="A271" s="3">
         <v>43005</v>
       </c>
@@ -4286,7 +4906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="272" ht="16.5" spans="1:4">
       <c r="A272" s="3">
         <v>43006</v>
       </c>
@@ -4301,20 +4921,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>